--- a/WithinCountry_CrossTimePointsResults.xlsx
+++ b/WithinCountry_CrossTimePointsResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sociology Master\KU Leuven\Structural Equation\SEM_FinalPaper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D5101C-58D8-4707-8345-DAED068BDEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8B25EA-82B6-4FAA-8DBE-6479C7DC5297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economic Crisis" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -426,11 +426,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -438,16 +453,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,163 +768,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -911,364 +932,365 @@
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="E19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1281,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43411F68-36AB-4B34-8554-C5819810B8FE}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1298,439 +1320,439 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1743,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAF3FA4-772B-48E5-82A1-ED1DEA133A69}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1759,638 +1781,649 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="B10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="B11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="B12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
+      <c r="B13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="B15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
+      <c r="B16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="B17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="B19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="B20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="B22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
+      <c r="B23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="B24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
+      <c r="B25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="B26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
+      <c r="B27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
+      <c r="B28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
+      <c r="B29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
